--- a/チリ向け電動ガン作成構想.xlsx
+++ b/チリ向け電動ガン作成構想.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\source tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CAB8B4-7C9E-4A71-B9A2-1407545D961C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8892" xr2:uid="{254DA877-D3C5-403D-8044-EBBE212F3E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8895"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="検討内容" sheetId="1" r:id="rId1"/>
+    <sheet name="制約について" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
   <si>
     <t>メカボックス</t>
     <phoneticPr fontId="2"/>
@@ -123,28 +123,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アウターバレルベース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バレルエクステンション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HK417付属品</t>
-    <rPh sb="5" eb="7">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メルカリ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -158,23 +136,6 @@
   </si>
   <si>
     <t>スプリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cyma製 スポーツライン電動ガン \12000-\13000で代替</t>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>デンドウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ダイタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サマリウムコバルトモーター??</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -185,29 +146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">APS製 RS-2ストック </t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LayLax</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M-120-150</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M-LOCK or Keymod</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PDI Wホールドパッキン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -222,27 +160,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>4月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -250,26 +167,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サマコバ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チャンバーアセンブリ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>グレイカラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -280,37 +178,440 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8月実戦し、9月チリへ出立</t>
-    <rPh sb="1" eb="2">
+    <t>M-LOCK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楽天</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チリのAirsoft Fieldsに適用される一般的な規則：</t>
+  </si>
+  <si>
+    <t>Assaultの場合は5メートル（400 FPS未満）</t>
+  </si>
+  <si>
+    <t>CQBの上限は350FPSです（100％CQBフィールドのみ）。</t>
+  </si>
+  <si>
+    <t>すべてのFPSは0.20gを使用して測定されます</t>
+  </si>
+  <si>
+    <t>私たちのMEDは "Distancia"（距離）と呼ばれており、それを要求する必要があります。 </t>
+  </si>
+  <si>
+    <t>時々、あなたは「サイレントキル」のためにダミーのナイフを使うことができるか、あるいは単に敵の胸にピストルで撃つか、またはブートすることができます。</t>
+  </si>
+  <si>
+    <t>General rules applied in Airsoft Fields in Chile:</t>
+  </si>
+  <si>
+    <t>5 meters (16,4 ft) for Assault (less than 400 FPS)</t>
+  </si>
+  <si>
+    <t>10 meters (32,8 ft) for DMR/Sniper/Support (from 450 FPS)</t>
+  </si>
+  <si>
+    <t>CQB has a limit of 350FPS (only 100% CQB fields).</t>
+  </si>
+  <si>
+    <t>All FPS are measured using .20g</t>
+  </si>
+  <si>
+    <t>our MED is called "Distancia" (Distance) and we have to call for it. </t>
+  </si>
+  <si>
+    <t>sometimes you can use a dummy knife for "Silent Kill" or just shoot with a pistol to enemy's chest or boot.</t>
+  </si>
+  <si>
+    <t>MED</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Minimum Engagement Distance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最小戦闘距離</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>350FPS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>106.68m/s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.13806J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.2g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>121.92m/s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.48644J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>400FPS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DMR /スナイパー/サポート用に10メートル（32 F）（450 FPSから）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Designated Marksman Rifle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マークスマンライフル/選抜射手</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CQB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Close Quarter Battle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近接戦闘</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>91.44m/s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300FPS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.83612J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サマリウムコバルトモーター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャンバー関連</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロアーフレーム・アッパーフレーム・グリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オフセットジョイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APS製 RS-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prowin製 or LayLax</t>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルイ SR-16 樹脂製</t>
+    <rPh sb="10" eb="12">
+      <t>ジュシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PDI Wホールドパッキン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FireFly製 電気なまず</t>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノーブランド品</t>
+    <rPh sb="6" eb="7">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラクマ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>amazon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楽天</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャージングハンドル等</t>
+    <rPh sb="10" eb="11">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヤフオク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トリガーロックピン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>275mm or 300mm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インナーバレル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アウターバレルキット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未加工ロアーフレーム</t>
+    <rPh sb="0" eb="3">
+      <t>ミカコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加工済ロアーフレーム</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加工済アッパーフレーム</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EG700モーター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ver.2メカボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピストン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピストンヘッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリングガイド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タペットプレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A&amp;K ギアセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逆転防止ラッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ギャクテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノズル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スナイパーグリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノーマルグリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グリップエンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トリガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アウターバレルキット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オフセットジョイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5-8月実戦し、9月チリへ出立</t>
+    <rPh sb="3" eb="4">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="4" eb="6">
       <t>ジッセン</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="9" eb="10">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="13" eb="15">
       <t>シュッタツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://www.gunshopbaton.com/products/detail/2752</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>￥ 17,064 (税込)</t>
-  </si>
-  <si>
-    <t>BELLATRIX-R2 ( ベラトリックス )</t>
+    <t>マグウェルグリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AliExpress</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AliExpress</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M-120-150　レギュレーション調査要</t>
+    <rPh sb="18" eb="20">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シリンダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シリンダーヘッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スイッチ以外ある</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラ製軸受</t>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジクウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SHSハイトルクモーター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トリガーロックピン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャーハンキット</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,17 +658,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,18 +703,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,42 +730,56 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -485,67 +794,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>206189</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E63763-6754-4D8F-86B7-C3702A6E9CF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6535271" y="2294965"/>
-          <a:ext cx="1380564" cy="1622611"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,22 +1092,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DEE335-6214-49BF-A891-2EF2B10BF659}">
-  <dimension ref="B2:R24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.796875" style="4"/>
-    <col min="5" max="5" width="8.796875" style="5"/>
-    <col min="6" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="3.75" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.75" style="4"/>
+    <col min="5" max="5" width="8.75" style="5"/>
+    <col min="6" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,302 +1117,717 @@
         <v>11718</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="M7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="M8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="11">
         <v>12000</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
-        <v>3500</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
+        <v>2400</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="11">
+        <v>4000</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11">
+        <v>2500</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3">
         <v>1292</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4500</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11">
+        <v>2000</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="5">
-        <v>17000</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="15">
-        <v>8000</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11">
+        <v>3000</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="5">
         <v>8000</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="M13" s="10"/>
+      <c r="N13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3500</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="19">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="10"/>
+      <c r="N15" s="5">
+        <v>500</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="10"/>
+      <c r="N16" s="5">
+        <v>5500</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13"/>
+      <c r="N17" s="14">
+        <v>3000</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="14">
+        <v>4000</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7">
+        <v>3000</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="8">
+        <f>SUM(N8:N19)</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11">
+        <v>698</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
+        <v>1168</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="P24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11">
+        <v>3960</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="P26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="21"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3480</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
+        <v>500</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="P30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R30" s="21"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
         <v>5000</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="10">
-        <v>5000</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5000</v>
-      </c>
-      <c r="N15" s="11">
-        <f>SUM(N8:N14)</f>
-        <v>51500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7">
-        <v>5000</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4200</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4000</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5">
-        <v>500</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>31</v>
+      <c r="F32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="P32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1480</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="5">
+        <v>584</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B35" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17">
+        <v>561</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="P35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R38" s="21"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="21"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R40" s="21"/>
+      <c r="S40" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R42" s="21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="21"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P44" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="21"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="P45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R45" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
+  <mergeCells count="5">
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="R28:R40"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="R24:R26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" xr:uid="{A1B63B8C-25D0-4E6D-A29A-A79926B6F423}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/チリ向け電動ガン作成構想.xlsx
+++ b/チリ向け電動ガン作成構想.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Documents\SourceTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CAB8B4-7C9E-4A71-B9A2-1407545D961C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5346EF6F-E20A-468F-BCC3-0A80AD438F39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8892" xr2:uid="{254DA877-D3C5-403D-8044-EBBE212F3E7C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>メカボックス</t>
     <phoneticPr fontId="2"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>M-LOCK or Keymod</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PDI Wホールドパッキン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -258,14 +254,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>グレイカラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>7月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -304,6 +292,42 @@
   </si>
   <si>
     <t>BELLATRIX-R2 ( ベラトリックス )</t>
+  </si>
+  <si>
+    <t>楽天</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポイント還元 -90P</t>
+    <rPh sb="4" eb="6">
+      <t>カンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポイント還元 -165P</t>
+    <rPh sb="4" eb="6">
+      <t>カンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドガード+パッキン+押しゴム</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気なまず（甘口）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M-LOCK　10.5inch KUBLAI MIレプリカ</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -367,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -845,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DEE335-6214-49BF-A891-2EF2B10BF659}">
-  <dimension ref="B2:R24"/>
+  <dimension ref="B2:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -859,7 +895,7 @@
     <col min="6" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,46 +908,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="M8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="18">
         <v>12000</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -924,20 +962,19 @@
       <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="M9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="18">
+        <v>6000</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="5">
         <v>4500</v>
@@ -958,28 +995,22 @@
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="5">
         <v>17000</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -994,16 +1025,16 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="M12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="15">
         <v>8000</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1014,12 +1045,12 @@
         <v>27</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1027,16 +1058,16 @@
         <v>5000</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N14" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1045,10 +1076,10 @@
       </c>
       <c r="N15" s="11">
         <f>SUM(N8:N14)</f>
-        <v>51500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1087,7 @@
         <v>5000</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
@@ -1071,54 +1102,64 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="5">
-        <v>1000</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3">
+        <v>698</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3">
+        <v>1166</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="5">
-        <v>4200</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3">
+        <v>3960</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M22" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1127,30 +1168,50 @@
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E26" s="5">
         <v>4000</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E27" s="5">
         <v>500</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
